--- a/汽柴煤油2.0/eta/PG-SC拟合残差_原油指数_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/PG-SC拟合残差_原油指数_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>248.4</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-200.8</v>
+        <v>-188.4</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-37</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -692,7 +692,7 @@
         <v>-55</v>
       </c>
       <c r="C20" t="n">
-        <v>-55</v>
+        <v>-54.9</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>-109.8</v>
       </c>
       <c r="C21" t="n">
-        <v>-109.8</v>
+        <v>-109.7</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>-36.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-36.5</v>
+        <v>-36.4</v>
       </c>
     </row>
     <row r="23">
